--- a/data/case1/2/Q1_13.xlsx
+++ b/data/case1/2/Q1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.091916305694226708</v>
+        <v>0.11638189569927704</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999396005421</v>
+        <v>-0.0059999999736461973</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999534447994</v>
+        <v>-0.0039999999787703189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999089110929</v>
+        <v>-0.0079999999603170835</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999535847977</v>
+        <v>-0.0029999999805845334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999510478261</v>
+        <v>-0.0019999999817681413</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998716975291</v>
+        <v>-0.0099999999470270495</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998725004424</v>
+        <v>0.021890850437772613</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.001999999954526821</v>
+        <v>-0.0019999999782691624</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999578637073</v>
+        <v>-0.0019999999757800424</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999481313822</v>
+        <v>-0.0029999999711574077</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.014720959466845596</v>
+        <v>-0.0034999999683558158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999473477317</v>
+        <v>-0.0034999999657587821</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999039470637</v>
+        <v>-0.0079999999456852322</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999997511446281</v>
+        <v>-0.00099999997532762563</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999680333502</v>
+        <v>-0.0019999999705739846</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999752169373</v>
+        <v>-0.0019999999699313875</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.026221025265430242</v>
+        <v>-0.0039999999611506354</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999590789592</v>
+        <v>-0.0039999999822373233</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999555124788</v>
+        <v>0.0064811269900761914</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999549644727</v>
+        <v>-0.0039999999816737741</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999545896614</v>
+        <v>-0.0039999999815121257</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.053383049485910661</v>
+        <v>-0.004999999973116509</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999789528822</v>
+        <v>-0.019999999906206156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999786093348</v>
+        <v>-0.019999999904984911</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999447015142</v>
+        <v>-0.0024999999793564598</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.002499999942435327</v>
+        <v>-0.0024999999790384919</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.001999999934410468</v>
+        <v>0.075427550211641048</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998770793326</v>
+        <v>-0.0069999999527183832</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999348891109</v>
+        <v>-0.059999999722053499</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.028520607885708316</v>
+        <v>-0.0069999999480110375</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998450623906</v>
+        <v>-0.0099999999347950563</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999042610312</v>
+        <v>-0.003999999960491607</v>
       </c>
     </row>
   </sheetData>
